--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
@@ -183,12 +183,12 @@
       <t xml:space="preserve">Oh my!
 Splendid!
 Hug me!
-Behold!
+Look at that!
 Wow!
 A hero!
 Please sign for me!
 Incredible!
-Phew!
+Woo hoo!
 Hurray.</t>
     </r>
   </si>
@@ -2304,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2384280</xdr:colOff>
+      <xdr:colOff>2383920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50988960" cy="132480"/>
+          <a:ext cx="50988600" cy="132120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,9 +2349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
+      <xdr:colOff>523440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2361,7 +2361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55516680" cy="36191520"/>
+          <a:ext cx="55516320" cy="36191160"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -2499,11 +2499,11 @@
   <dimension ref="A1:CM116"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV116" sqref="AV116"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$119</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$121</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="272">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -107,107 +107,30 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">메테오!
+    <t xml:space="preserve">메테오!
 쏟아져라, 별의 눈물!
-오너라, 종언의 불길</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">…메테오!
+오너라, 종언의 불길…메테오!
 별들이여, 내 부름에 답하라&amp;…메테오!
 이 하늘에 희망은 없고, 이 땅에 자비도 없다. &amp;그렇다면ーー 떨어져라, 메테오!</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">barrel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">～옹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">♪
+    <t xml:space="preserve">토～옹♪
 토-옹!
 토옹
 통</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">phrase_ActSwarm</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">스웜!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">…스웜!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">산화해라!
+    <t xml:space="preserve">스웜!
+…스웜!
+산화해라!
 그 몸에 새겨라! 스웜!
 자아, 춤춰라!</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1703,7 +1626,7 @@
   <si>
     <t xml:space="preserve">아무 것도 없군.
 더 모아보자.
-보물고가 쓸쓸하구나.
+보물고가 휑하구나.
 가난하군.</t>
   </si>
   <si>
@@ -1732,6 +1655,26 @@
 시끄럽{네}.
 그만{해라}!
 무슨 작정이야!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodNice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{맛있다}.
+이거 괜찮{네}.
+이거 맛이 꽤 {좋아}.
+이 맛, 옛날 생각 {난다}.
+오랜만에 먹어보{네}.
+맛이 꽤 괜찮아.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodBored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 거 {없나}?
+질렸{어}.
+맨날 이거야.
+이거 너무 많이 먹었{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">musicBored</t>
@@ -2201,7 +2144,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2233,13 +2176,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2312,7 +2248,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2368,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2381400</xdr:colOff>
+      <xdr:colOff>2380320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50986080" cy="129600"/>
+          <a:ext cx="50985000" cy="128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2413,9 +2349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>520920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:colOff>519840</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2425,7 +2361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55513800" cy="35532000"/>
+          <a:ext cx="55512720" cy="38650320"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2560,14 +2496,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CM120"/>
+  <dimension ref="A1:CM122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2716,70 +2652,35 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
-      <c r="BN3" s="0"/>
-      <c r="BO3" s="0"/>
-      <c r="BP3" s="0"/>
-      <c r="BQ3" s="0"/>
-      <c r="BR3" s="0"/>
-      <c r="BS3" s="0"/>
-      <c r="BT3" s="0"/>
-      <c r="BU3" s="0"/>
-      <c r="BV3" s="0"/>
-      <c r="BW3" s="0"/>
-      <c r="BX3" s="0"/>
-      <c r="BY3" s="0"/>
-      <c r="BZ3" s="0"/>
-      <c r="CA3" s="0"/>
-      <c r="CB3" s="0"/>
-      <c r="CC3" s="0"/>
-      <c r="CD3" s="0"/>
-      <c r="CE3" s="0"/>
-      <c r="CF3" s="0"/>
-      <c r="CG3" s="0"/>
-      <c r="CH3" s="0"/>
-      <c r="CI3" s="0"/>
-      <c r="CJ3" s="0"/>
-      <c r="CK3" s="0"/>
-      <c r="CL3" s="0"/>
-      <c r="CM3" s="0"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2788,7 +2689,7 @@
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2815,8 +2716,8 @@
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="0"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2842,7 +2743,7 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2862,84 +2763,32 @@
       <c r="T6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-      <c r="BX7" s="3"/>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="3"/>
-      <c r="CC7" s="3"/>
-      <c r="CD7" s="3"/>
-      <c r="CE7" s="3"/>
-      <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
-      <c r="CH7" s="3"/>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="AW7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -6869,13 +6718,14 @@
       <c r="CL87" s="3"/>
       <c r="CM87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="C88" s="4"/>
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
       <c r="BA88" s="3"/>
@@ -6918,116 +6768,169 @@
       <c r="CL88" s="3"/>
       <c r="CM88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AY89" s="3"/>
-      <c r="AZ89" s="3"/>
-      <c r="BA89" s="3"/>
-      <c r="BB89" s="3"/>
-      <c r="BC89" s="3"/>
-      <c r="BD89" s="3"/>
-      <c r="BE89" s="3"/>
-      <c r="BF89" s="3"/>
-      <c r="BG89" s="3"/>
-      <c r="BH89" s="3"/>
-      <c r="BI89" s="3"/>
-      <c r="BJ89" s="3"/>
-      <c r="BK89" s="3"/>
-      <c r="BL89" s="3"/>
-      <c r="BM89" s="3"/>
-      <c r="BN89" s="3"/>
-      <c r="BO89" s="3"/>
-      <c r="BP89" s="3"/>
-      <c r="BQ89" s="3"/>
-      <c r="BR89" s="3"/>
-      <c r="BS89" s="3"/>
-      <c r="BT89" s="3"/>
-      <c r="BU89" s="3"/>
-      <c r="BV89" s="3"/>
-      <c r="BW89" s="3"/>
-      <c r="BX89" s="3"/>
-      <c r="BY89" s="3"/>
-      <c r="BZ89" s="3"/>
-      <c r="CA89" s="3"/>
-      <c r="CB89" s="3"/>
-      <c r="CC89" s="3"/>
-      <c r="CD89" s="3"/>
-      <c r="CE89" s="3"/>
-      <c r="CF89" s="3"/>
-      <c r="CG89" s="3"/>
-      <c r="CH89" s="3"/>
-      <c r="CI89" s="3"/>
-      <c r="CJ89" s="3"/>
-      <c r="CK89" s="3"/>
-      <c r="CL89" s="3"/>
-      <c r="CM89" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="4"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+      <c r="BD90" s="3"/>
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
+      <c r="BJ90" s="3"/>
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
+      <c r="BO90" s="3"/>
+      <c r="BP90" s="3"/>
+      <c r="BQ90" s="3"/>
+      <c r="BR90" s="3"/>
+      <c r="BS90" s="3"/>
+      <c r="BT90" s="3"/>
+      <c r="BU90" s="3"/>
+      <c r="BV90" s="3"/>
+      <c r="BW90" s="3"/>
+      <c r="BX90" s="3"/>
+      <c r="BY90" s="3"/>
+      <c r="BZ90" s="3"/>
+      <c r="CA90" s="3"/>
+      <c r="CB90" s="3"/>
+      <c r="CC90" s="3"/>
+      <c r="CD90" s="3"/>
+      <c r="CE90" s="3"/>
+      <c r="CF90" s="3"/>
+      <c r="CG90" s="3"/>
+      <c r="CH90" s="3"/>
+      <c r="CI90" s="3"/>
+      <c r="CJ90" s="3"/>
+      <c r="CK90" s="3"/>
+      <c r="CL90" s="3"/>
+      <c r="CM90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-    </row>
-    <row r="92" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="AY91" s="3"/>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
+      <c r="BJ91" s="3"/>
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
+      <c r="BO91" s="3"/>
+      <c r="BP91" s="3"/>
+      <c r="BQ91" s="3"/>
+      <c r="BR91" s="3"/>
+      <c r="BS91" s="3"/>
+      <c r="BT91" s="3"/>
+      <c r="BU91" s="3"/>
+      <c r="BV91" s="3"/>
+      <c r="BW91" s="3"/>
+      <c r="BX91" s="3"/>
+      <c r="BY91" s="3"/>
+      <c r="BZ91" s="3"/>
+      <c r="CA91" s="3"/>
+      <c r="CB91" s="3"/>
+      <c r="CC91" s="3"/>
+      <c r="CD91" s="3"/>
+      <c r="CE91" s="3"/>
+      <c r="CF91" s="3"/>
+      <c r="CG91" s="3"/>
+      <c r="CH91" s="3"/>
+      <c r="CI91" s="3"/>
+      <c r="CJ91" s="3"/>
+      <c r="CK91" s="3"/>
+      <c r="CL91" s="3"/>
+      <c r="CM91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-    </row>
-    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
@@ -7053,23 +6956,59 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
@@ -7077,249 +7016,195 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-    </row>
-    <row r="98" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-    </row>
-    <row r="99" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="99" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="O99" s="4" t="s">
+      <c r="K101" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="L101" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="Q99" s="4" t="s">
+      <c r="M101" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="R99" s="4" t="s">
+      <c r="N101" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S99" s="4" t="s">
+      <c r="O101" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="T99" s="4" t="s">
+      <c r="P101" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="Q101" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="R101" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="S101" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="T101" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
+    <row r="102" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="103" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+    <row r="104" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>241</v>
       </c>
@@ -7327,47 +7212,101 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>253</v>
       </c>
@@ -7375,7 +7314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>255</v>
       </c>
@@ -7383,7 +7322,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
@@ -7391,48 +7330,64 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="8" t="s">
         <v>267</v>
       </c>
     </row>
+    <row r="121" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T119"/>
+  <autoFilter ref="A2:T121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$121</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$122</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="274">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t xml:space="preserve">hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{낳아라}!
+자, {낳아라}!
+알을 {낳아라}!</t>
   </si>
   <si>
     <r>
@@ -2227,7 +2235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2242,6 +2250,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2304,9 +2316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2380320</xdr:colOff>
+      <xdr:colOff>2379960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2316,7 +2328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50985000" cy="128520"/>
+          <a:ext cx="50984640" cy="128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,9 +2361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>519840</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:colOff>519480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2361,7 +2373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55512720" cy="38650320"/>
+          <a:ext cx="55512360" cy="39066480"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2496,14 +2508,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CM122"/>
+  <dimension ref="A1:CM123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
-      <selection pane="bottomRight" activeCell="B83" activeCellId="0" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2682,38 +2694,48 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="AW4" s="1"/>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1"/>
@@ -2736,11 +2758,11 @@
       <c r="T5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1"/>
@@ -2763,11 +2785,11 @@
       <c r="T6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1"/>
@@ -2790,50 +2812,40 @@
       <c r="T7" s="1"/>
       <c r="AW7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2863,14 +2875,14 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2900,14 +2912,14 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2937,14 +2949,14 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2975,13 +2987,13 @@
       <c r="AV12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -3011,13 +3023,14 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C14" s="5"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -3047,7 +3060,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3083,14 +3096,13 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="146.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -3120,13 +3132,14 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="146.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C17" s="6"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -3156,14 +3169,13 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -3193,13 +3205,14 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="C19" s="5"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -3229,11 +3242,11 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="U20" s="3"/>
@@ -3265,11 +3278,11 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="U21" s="3"/>
@@ -3301,11 +3314,11 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="3"/>
@@ -3337,14 +3350,13 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -3374,13 +3386,14 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C24" s="5"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -3410,11 +3423,11 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="U25" s="3"/>
@@ -3446,11 +3459,11 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
       <c r="U26" s="3"/>
@@ -3482,11 +3495,11 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="U27" s="3"/>
@@ -3518,11 +3531,11 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="U28" s="3"/>
@@ -3554,11 +3567,11 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="U29" s="3"/>
@@ -3590,11 +3603,11 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="U30" s="3"/>
@@ -3626,11 +3639,11 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>75</v>
       </c>
       <c r="U31" s="3"/>
@@ -3662,11 +3675,11 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="U32" s="3"/>
@@ -3698,11 +3711,11 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>79</v>
       </c>
       <c r="U33" s="3"/>
@@ -3734,11 +3747,11 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="U34" s="3"/>
@@ -3770,14 +3783,13 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -3807,13 +3819,14 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="C36" s="5"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3843,11 +3856,11 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>87</v>
       </c>
       <c r="U37" s="3"/>
@@ -3883,7 +3896,7 @@
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>89</v>
       </c>
       <c r="U38" s="3"/>
@@ -3915,31 +3928,13 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -3969,31 +3964,31 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -4023,31 +4018,31 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -4077,31 +4072,31 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+    <row r="42" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -4131,31 +4126,31 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    <row r="43" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -4186,30 +4181,30 @@
       <c r="AV43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -4239,31 +4234,31 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+    <row r="45" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -4293,31 +4288,31 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -4347,13 +4342,31 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -4495,7 +4508,7 @@
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>115</v>
       </c>
       <c r="U51" s="3"/>
@@ -4527,11 +4540,11 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>117</v>
       </c>
       <c r="U52" s="3"/>
@@ -4563,11 +4576,11 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>119</v>
       </c>
       <c r="U53" s="3"/>
@@ -4599,11 +4612,11 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
       <c r="U54" s="3"/>
@@ -4635,11 +4648,11 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>123</v>
       </c>
       <c r="U55" s="3"/>
@@ -4743,11 +4756,11 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>129</v>
       </c>
       <c r="U58" s="3"/>
@@ -4779,9 +4792,12 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -4812,11 +4828,8 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="4" t="s">
         <v>132</v>
       </c>
       <c r="U60" s="3"/>
@@ -4848,11 +4861,11 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>134</v>
       </c>
       <c r="U61" s="3"/>
@@ -4883,54 +4896,13 @@
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
-      <c r="AY61" s="3"/>
-      <c r="AZ61" s="3"/>
-      <c r="BA61" s="3"/>
-      <c r="BB61" s="3"/>
-      <c r="BC61" s="3"/>
-      <c r="BD61" s="3"/>
-      <c r="BE61" s="3"/>
-      <c r="BF61" s="3"/>
-      <c r="BG61" s="3"/>
-      <c r="BH61" s="3"/>
-      <c r="BI61" s="3"/>
-      <c r="BJ61" s="3"/>
-      <c r="BK61" s="3"/>
-      <c r="BL61" s="3"/>
-      <c r="BM61" s="3"/>
-      <c r="BN61" s="3"/>
-      <c r="BO61" s="3"/>
-      <c r="BP61" s="3"/>
-      <c r="BQ61" s="3"/>
-      <c r="BR61" s="3"/>
-      <c r="BS61" s="3"/>
-      <c r="BT61" s="3"/>
-      <c r="BU61" s="3"/>
-      <c r="BV61" s="3"/>
-      <c r="BW61" s="3"/>
-      <c r="BX61" s="3"/>
-      <c r="BY61" s="3"/>
-      <c r="BZ61" s="3"/>
-      <c r="CA61" s="3"/>
-      <c r="CB61" s="3"/>
-      <c r="CC61" s="3"/>
-      <c r="CD61" s="3"/>
-      <c r="CE61" s="3"/>
-      <c r="CF61" s="3"/>
-      <c r="CG61" s="3"/>
-      <c r="CH61" s="3"/>
-      <c r="CI61" s="3"/>
-      <c r="CJ61" s="3"/>
-      <c r="CK61" s="3"/>
-      <c r="CL61" s="3"/>
-      <c r="CM61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>115</v>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5004,10 +4976,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>137</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -5079,11 +5051,11 @@
       <c r="CL63" s="3"/>
       <c r="CM63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>139</v>
       </c>
       <c r="U64" s="3"/>
@@ -5156,11 +5128,11 @@
       <c r="CL64" s="3"/>
       <c r="CM64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>141</v>
       </c>
       <c r="U65" s="3"/>
@@ -5233,11 +5205,11 @@
       <c r="CL65" s="3"/>
       <c r="CM65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>143</v>
       </c>
       <c r="U66" s="3"/>
@@ -5310,11 +5282,11 @@
       <c r="CL66" s="3"/>
       <c r="CM66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>145</v>
       </c>
       <c r="U67" s="3"/>
@@ -5387,11 +5359,11 @@
       <c r="CL67" s="3"/>
       <c r="CM67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>147</v>
       </c>
       <c r="U68" s="3"/>
@@ -5464,11 +5436,11 @@
       <c r="CL68" s="3"/>
       <c r="CM68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>149</v>
       </c>
       <c r="U69" s="3"/>
@@ -5541,11 +5513,11 @@
       <c r="CL69" s="3"/>
       <c r="CM69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>151</v>
       </c>
       <c r="U70" s="3"/>
@@ -5618,11 +5590,11 @@
       <c r="CL70" s="3"/>
       <c r="CM70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>153</v>
       </c>
       <c r="U71" s="3"/>
@@ -5699,7 +5671,7 @@
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>155</v>
       </c>
       <c r="U72" s="3"/>
@@ -6080,11 +6052,11 @@
       <c r="CL76" s="3"/>
       <c r="CM76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>165</v>
       </c>
       <c r="U77" s="3"/>
@@ -6157,11 +6129,11 @@
       <c r="CL77" s="3"/>
       <c r="CM77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>167</v>
       </c>
       <c r="U78" s="3"/>
@@ -6234,11 +6206,11 @@
       <c r="CL78" s="3"/>
       <c r="CM78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>169</v>
       </c>
       <c r="U79" s="3"/>
@@ -6311,13 +6283,41 @@
       <c r="CL79" s="3"/>
       <c r="CM79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
+      <c r="AV80" s="3"/>
       <c r="AY80" s="3"/>
       <c r="AZ80" s="3"/>
       <c r="BA80" s="3"/>
@@ -6410,8 +6410,11 @@
       <c r="CM81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="1" t="s">
         <v>174</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="AY82" s="3"/>
       <c r="AZ82" s="3"/>
@@ -6455,11 +6458,8 @@
       <c r="CL82" s="3"/>
       <c r="CM82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AY83" s="3"/>
@@ -6504,11 +6504,11 @@
       <c r="CL83" s="3"/>
       <c r="CM83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AY84" s="3"/>
@@ -6553,11 +6553,11 @@
       <c r="CL84" s="3"/>
       <c r="CM84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AY85" s="3"/>
@@ -6602,31 +6602,13 @@
       <c r="CL85" s="3"/>
       <c r="CM85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
+    <row r="86" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
       <c r="AY86" s="3"/>
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
@@ -6669,13 +6651,31 @@
       <c r="CL86" s="3"/>
       <c r="CM86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+    <row r="87" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="3"/>
       <c r="BA87" s="3"/>
@@ -6722,10 +6722,9 @@
       <c r="A88" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C88" s="4"/>
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
       <c r="BA88" s="3"/>
@@ -6768,116 +6767,116 @@
       <c r="CL88" s="3"/>
       <c r="CM88" s="3"/>
     </row>
-    <row r="89" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY89" s="3"/>
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+      <c r="BD89" s="3"/>
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+      <c r="BI89" s="3"/>
+      <c r="BJ89" s="3"/>
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+      <c r="BO89" s="3"/>
+      <c r="BP89" s="3"/>
+      <c r="BQ89" s="3"/>
+      <c r="BR89" s="3"/>
+      <c r="BS89" s="3"/>
+      <c r="BT89" s="3"/>
+      <c r="BU89" s="3"/>
+      <c r="BV89" s="3"/>
+      <c r="BW89" s="3"/>
+      <c r="BX89" s="3"/>
+      <c r="BY89" s="3"/>
+      <c r="BZ89" s="3"/>
+      <c r="CA89" s="3"/>
+      <c r="CB89" s="3"/>
+      <c r="CC89" s="3"/>
+      <c r="CD89" s="3"/>
+      <c r="CE89" s="3"/>
+      <c r="CF89" s="3"/>
+      <c r="CG89" s="3"/>
+      <c r="CH89" s="3"/>
+      <c r="CI89" s="3"/>
+      <c r="CJ89" s="3"/>
+      <c r="CK89" s="3"/>
+      <c r="CL89" s="3"/>
+      <c r="CM89" s="3"/>
+    </row>
+    <row r="90" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AY90" s="3"/>
-      <c r="AZ90" s="3"/>
-      <c r="BA90" s="3"/>
-      <c r="BB90" s="3"/>
-      <c r="BC90" s="3"/>
-      <c r="BD90" s="3"/>
-      <c r="BE90" s="3"/>
-      <c r="BF90" s="3"/>
-      <c r="BG90" s="3"/>
-      <c r="BH90" s="3"/>
-      <c r="BI90" s="3"/>
-      <c r="BJ90" s="3"/>
-      <c r="BK90" s="3"/>
-      <c r="BL90" s="3"/>
-      <c r="BM90" s="3"/>
-      <c r="BN90" s="3"/>
-      <c r="BO90" s="3"/>
-      <c r="BP90" s="3"/>
-      <c r="BQ90" s="3"/>
-      <c r="BR90" s="3"/>
-      <c r="BS90" s="3"/>
-      <c r="BT90" s="3"/>
-      <c r="BU90" s="3"/>
-      <c r="BV90" s="3"/>
-      <c r="BW90" s="3"/>
-      <c r="BX90" s="3"/>
-      <c r="BY90" s="3"/>
-      <c r="BZ90" s="3"/>
-      <c r="CA90" s="3"/>
-      <c r="CB90" s="3"/>
-      <c r="CC90" s="3"/>
-      <c r="CD90" s="3"/>
-      <c r="CE90" s="3"/>
-      <c r="CF90" s="3"/>
-      <c r="CG90" s="3"/>
-      <c r="CH90" s="3"/>
-      <c r="CI90" s="3"/>
-      <c r="CJ90" s="3"/>
-      <c r="CK90" s="3"/>
-      <c r="CL90" s="3"/>
-      <c r="CM90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>192</v>
       </c>
       <c r="AY91" s="3"/>
@@ -6922,379 +6921,420 @@
       <c r="CL91" s="3"/>
       <c r="CM91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+      <c r="BJ92" s="3"/>
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+      <c r="BO92" s="3"/>
+      <c r="BP92" s="3"/>
+      <c r="BQ92" s="3"/>
+      <c r="BR92" s="3"/>
+      <c r="BS92" s="3"/>
+      <c r="BT92" s="3"/>
+      <c r="BU92" s="3"/>
+      <c r="BV92" s="3"/>
+      <c r="BW92" s="3"/>
+      <c r="BX92" s="3"/>
+      <c r="BY92" s="3"/>
+      <c r="BZ92" s="3"/>
+      <c r="CA92" s="3"/>
+      <c r="CB92" s="3"/>
+      <c r="CC92" s="3"/>
+      <c r="CD92" s="3"/>
+      <c r="CE92" s="3"/>
+      <c r="CF92" s="3"/>
+      <c r="CG92" s="3"/>
+      <c r="CH92" s="3"/>
+      <c r="CI92" s="3"/>
+      <c r="CJ92" s="3"/>
+      <c r="CK92" s="3"/>
+      <c r="CL92" s="3"/>
+      <c r="CM92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-    </row>
-    <row r="94" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-    </row>
-    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-    </row>
-    <row r="101" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="C102" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="D102" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="E102" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="F102" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="G102" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="H102" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="I102" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L101" s="4" t="s">
+      <c r="J102" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="K102" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="L102" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="O101" s="4" t="s">
+      <c r="M102" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="4" t="s">
+      <c r="N102" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Q101" s="4" t="s">
+      <c r="O102" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R101" s="4" t="s">
+      <c r="P102" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="S101" s="4" t="s">
+      <c r="Q102" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="T101" s="4" t="s">
+      <c r="R102" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="S102" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="T102" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
+    <row r="104" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+    </row>
+    <row r="106" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7306,27 +7346,27 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7334,60 +7374,68 @@
       <c r="A116" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B119" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="9" t="s">
         <v>271</v>
       </c>
     </row>
+    <row r="123" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T121"/>
+  <autoFilter ref="A2:T122"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
